--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Npy-Prlhr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Npy-Prlhr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.926322666666667</v>
+        <v>0.8200883333333334</v>
       </c>
       <c r="H2">
-        <v>23.778968</v>
+        <v>2.460265</v>
       </c>
       <c r="I2">
-        <v>0.7593601911550306</v>
+        <v>0.2405117342909232</v>
       </c>
       <c r="J2">
-        <v>0.7593601911550305</v>
+        <v>0.2405117342909232</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1609186666666667</v>
+        <v>0.01102566666666667</v>
       </c>
       <c r="N2">
-        <v>0.482756</v>
+        <v>0.033077</v>
       </c>
       <c r="O2">
-        <v>0.584269989289021</v>
+        <v>0.07220475878629121</v>
       </c>
       <c r="P2">
-        <v>0.584269989289021</v>
+        <v>0.07220475878629119</v>
       </c>
       <c r="Q2">
-        <v>1.275493275089778</v>
+        <v>0.009042020600555558</v>
       </c>
       <c r="R2">
-        <v>11.479439475808</v>
+        <v>0.08137818540500001</v>
       </c>
       <c r="S2">
-        <v>0.4436713707526587</v>
+        <v>0.01736609175974867</v>
       </c>
       <c r="T2">
-        <v>0.4436713707526586</v>
+        <v>0.01736609175974867</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.926322666666667</v>
+        <v>0.8200883333333334</v>
       </c>
       <c r="H3">
-        <v>23.778968</v>
+        <v>2.460265</v>
       </c>
       <c r="I3">
-        <v>0.7593601911550306</v>
+        <v>0.2405117342909232</v>
       </c>
       <c r="J3">
-        <v>0.7593601911550305</v>
+        <v>0.2405117342909232</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.081466</v>
       </c>
       <c r="O3">
-        <v>0.09859668020163265</v>
+        <v>0.1778345339445536</v>
       </c>
       <c r="P3">
-        <v>0.09859668020163266</v>
+        <v>0.1778345339445536</v>
       </c>
       <c r="Q3">
-        <v>0.2152419341208889</v>
+        <v>0.02226977205444445</v>
       </c>
       <c r="R3">
-        <v>1.937177407088</v>
+        <v>0.20042794849</v>
       </c>
       <c r="S3">
-        <v>0.07487039392516319</v>
+        <v>0.04277129217582263</v>
       </c>
       <c r="T3">
-        <v>0.07487039392516319</v>
+        <v>0.04277129217582262</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.926322666666667</v>
+        <v>0.8200883333333334</v>
       </c>
       <c r="H4">
-        <v>23.778968</v>
+        <v>2.460265</v>
       </c>
       <c r="I4">
-        <v>0.7593601911550306</v>
+        <v>0.2405117342909232</v>
       </c>
       <c r="J4">
-        <v>0.7593601911550305</v>
+        <v>0.2405117342909232</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.062491</v>
+        <v>0.07542833333333333</v>
       </c>
       <c r="N4">
-        <v>0.187473</v>
+        <v>0.226285</v>
       </c>
       <c r="O4">
-        <v>0.2268948448118316</v>
+        <v>0.4939641999563414</v>
       </c>
       <c r="P4">
-        <v>0.2268948448118317</v>
+        <v>0.4939641999563414</v>
       </c>
       <c r="Q4">
-        <v>0.4953238297626666</v>
+        <v>0.06185789616944445</v>
       </c>
       <c r="R4">
-        <v>4.457914467864</v>
+        <v>0.5567210655250001</v>
       </c>
       <c r="S4">
-        <v>0.1722949127284035</v>
+        <v>0.118804186409128</v>
       </c>
       <c r="T4">
-        <v>0.1722949127284035</v>
+        <v>0.118804186409128</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.926322666666667</v>
+        <v>0.8200883333333334</v>
       </c>
       <c r="H5">
-        <v>23.778968</v>
+        <v>2.460265</v>
       </c>
       <c r="I5">
-        <v>0.7593601911550306</v>
+        <v>0.2405117342909232</v>
       </c>
       <c r="J5">
-        <v>0.7593601911550305</v>
+        <v>0.2405117342909232</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.01762666666666667</v>
+        <v>0.03909066666666667</v>
       </c>
       <c r="N5">
-        <v>0.05288</v>
+        <v>0.117272</v>
       </c>
       <c r="O5">
-        <v>0.06399961271036179</v>
+        <v>0.2559965073128138</v>
       </c>
       <c r="P5">
-        <v>0.06399961271036181</v>
+        <v>0.2559965073128138</v>
       </c>
       <c r="Q5">
-        <v>0.1397146475377778</v>
+        <v>0.03205779967555556</v>
       </c>
       <c r="R5">
-        <v>1.25743182784</v>
+        <v>0.28852019708</v>
       </c>
       <c r="S5">
-        <v>0.04859875814158826</v>
+        <v>0.06157016394622384</v>
       </c>
       <c r="T5">
-        <v>0.04859875814158826</v>
+        <v>0.06157016394622384</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -779,7 +779,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.926322666666667</v>
+        <v>2.589676</v>
       </c>
       <c r="H6">
-        <v>23.778968</v>
+        <v>7.769028</v>
       </c>
       <c r="I6">
-        <v>0.7593601911550306</v>
+        <v>0.7594882657090768</v>
       </c>
       <c r="J6">
-        <v>0.7593601911550305</v>
+        <v>0.7594882657090768</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.007226666666666667</v>
+        <v>0.01102566666666667</v>
       </c>
       <c r="N6">
-        <v>0.02168</v>
+        <v>0.033077</v>
       </c>
       <c r="O6">
-        <v>0.02623887298715287</v>
+        <v>0.07220475878629121</v>
       </c>
       <c r="P6">
-        <v>0.02623887298715288</v>
+        <v>0.07220475878629119</v>
       </c>
       <c r="Q6">
-        <v>0.05728089180444444</v>
+        <v>0.02855290435066667</v>
       </c>
       <c r="R6">
-        <v>0.51552802624</v>
+        <v>0.256976139156</v>
       </c>
       <c r="S6">
-        <v>0.01992475560721697</v>
+        <v>0.05483866702654253</v>
       </c>
       <c r="T6">
-        <v>0.01992475560721697</v>
+        <v>0.05483866702654253</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.589676</v>
+      </c>
+      <c r="H7">
+        <v>7.769028</v>
+      </c>
+      <c r="I7">
+        <v>0.7594882657090768</v>
+      </c>
+      <c r="J7">
+        <v>0.7594882657090768</v>
+      </c>
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="L7">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G7">
-        <v>2.511836666666667</v>
-      </c>
-      <c r="H7">
-        <v>7.53551</v>
-      </c>
-      <c r="I7">
-        <v>0.2406398088449694</v>
-      </c>
-      <c r="J7">
-        <v>0.2406398088449694</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M7">
-        <v>0.1609186666666667</v>
+        <v>0.02715533333333333</v>
       </c>
       <c r="N7">
-        <v>0.482756</v>
+        <v>0.081466</v>
       </c>
       <c r="O7">
-        <v>0.584269989289021</v>
+        <v>0.1778345339445536</v>
       </c>
       <c r="P7">
-        <v>0.584269989289021</v>
+        <v>0.1778345339445536</v>
       </c>
       <c r="Q7">
-        <v>0.4042014072844445</v>
+        <v>0.07032351500533333</v>
       </c>
       <c r="R7">
-        <v>3.63781266556</v>
+        <v>0.632911635048</v>
       </c>
       <c r="S7">
-        <v>0.1405986185363624</v>
+        <v>0.1350632417687309</v>
       </c>
       <c r="T7">
-        <v>0.1405986185363623</v>
+        <v>0.1350632417687309</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,25 +903,25 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>2.511836666666667</v>
+        <v>2.589676</v>
       </c>
       <c r="H8">
-        <v>7.53551</v>
+        <v>7.769028</v>
       </c>
       <c r="I8">
-        <v>0.2406398088449694</v>
+        <v>0.7594882657090768</v>
       </c>
       <c r="J8">
-        <v>0.2406398088449694</v>
+        <v>0.7594882657090768</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,28 +930,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.02715533333333333</v>
+        <v>0.07542833333333333</v>
       </c>
       <c r="N8">
-        <v>0.081466</v>
+        <v>0.226285</v>
       </c>
       <c r="O8">
-        <v>0.09859668020163265</v>
+        <v>0.4939641999563414</v>
       </c>
       <c r="P8">
-        <v>0.09859668020163266</v>
+        <v>0.4939641999563414</v>
       </c>
       <c r="Q8">
-        <v>0.06820976196222223</v>
+        <v>0.1953349445533333</v>
       </c>
       <c r="R8">
-        <v>0.61388785766</v>
+        <v>1.75801450098</v>
       </c>
       <c r="S8">
-        <v>0.02372628627646946</v>
+        <v>0.3751600135472133</v>
       </c>
       <c r="T8">
-        <v>0.02372628627646946</v>
+        <v>0.3751600135472133</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,179 +965,55 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>2.511836666666667</v>
+        <v>2.589676</v>
       </c>
       <c r="H9">
-        <v>7.53551</v>
+        <v>7.769028</v>
       </c>
       <c r="I9">
-        <v>0.2406398088449694</v>
+        <v>0.7594882657090768</v>
       </c>
       <c r="J9">
-        <v>0.2406398088449694</v>
+        <v>0.7594882657090768</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.062491</v>
+        <v>0.03909066666666667</v>
       </c>
       <c r="N9">
-        <v>0.187473</v>
+        <v>0.117272</v>
       </c>
       <c r="O9">
-        <v>0.2268948448118316</v>
+        <v>0.2559965073128138</v>
       </c>
       <c r="P9">
-        <v>0.2268948448118317</v>
+        <v>0.2559965073128138</v>
       </c>
       <c r="Q9">
-        <v>0.1569671851366667</v>
+        <v>0.1012321612906667</v>
       </c>
       <c r="R9">
-        <v>1.41270466623</v>
+        <v>0.9110894516160001</v>
       </c>
       <c r="S9">
-        <v>0.05459993208342817</v>
+        <v>0.19442634336659</v>
       </c>
       <c r="T9">
-        <v>0.05459993208342817</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>2.511836666666667</v>
-      </c>
-      <c r="H10">
-        <v>7.53551</v>
-      </c>
-      <c r="I10">
-        <v>0.2406398088449694</v>
-      </c>
-      <c r="J10">
-        <v>0.2406398088449694</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.01762666666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.05288</v>
-      </c>
-      <c r="O10">
-        <v>0.06399961271036179</v>
-      </c>
-      <c r="P10">
-        <v>0.06399961271036181</v>
-      </c>
-      <c r="Q10">
-        <v>0.04427530764444445</v>
-      </c>
-      <c r="R10">
-        <v>0.3984777688</v>
-      </c>
-      <c r="S10">
-        <v>0.01540085456877354</v>
-      </c>
-      <c r="T10">
-        <v>0.01540085456877354</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>2.511836666666667</v>
-      </c>
-      <c r="H11">
-        <v>7.53551</v>
-      </c>
-      <c r="I11">
-        <v>0.2406398088449694</v>
-      </c>
-      <c r="J11">
-        <v>0.2406398088449694</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.007226666666666667</v>
-      </c>
-      <c r="N11">
-        <v>0.02168</v>
-      </c>
-      <c r="O11">
-        <v>0.02623887298715287</v>
-      </c>
-      <c r="P11">
-        <v>0.02623887298715288</v>
-      </c>
-      <c r="Q11">
-        <v>0.01815220631111111</v>
-      </c>
-      <c r="R11">
-        <v>0.1633698568</v>
-      </c>
-      <c r="S11">
-        <v>0.0063141173799359</v>
-      </c>
-      <c r="T11">
-        <v>0.0063141173799359</v>
+        <v>0.19442634336659</v>
       </c>
     </row>
   </sheetData>
